--- a/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
+++ b/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
@@ -70973,7 +70973,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
+++ b/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
@@ -67247,7 +67247,9 @@
       <c r="P1260" t="n">
         <v>0</v>
       </c>
-      <c r="Q1260" t="inlineStr"/>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
+++ b/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
@@ -4110,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5678,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="R95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -6630,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="R110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="R117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="R143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -8926,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="R151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -9206,7 +9206,7 @@
         <v>2</v>
       </c>
       <c r="R156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="R159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -9822,7 +9822,7 @@
         <v>1</v>
       </c>
       <c r="R167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -10774,7 +10774,7 @@
         <v>2</v>
       </c>
       <c r="R184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -11558,7 +11558,7 @@
         <v>2</v>
       </c>
       <c r="R198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -11950,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="R205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -12062,7 +12062,7 @@
         <v>2</v>
       </c>
       <c r="R207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="R215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -12566,7 +12566,7 @@
         <v>2</v>
       </c>
       <c r="R216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -13070,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="R225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -13238,7 +13238,7 @@
         <v>2</v>
       </c>
       <c r="R228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -13854,7 +13854,7 @@
         <v>2</v>
       </c>
       <c r="R239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -14582,7 +14582,7 @@
         <v>2</v>
       </c>
       <c r="R252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="R256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -15478,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="R268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="R274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -16206,7 +16206,7 @@
         <v>2</v>
       </c>
       <c r="R281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -16486,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="R286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -17046,7 +17046,7 @@
         <v>1</v>
       </c>
       <c r="R296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="R305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -18502,7 +18502,7 @@
         <v>2</v>
       </c>
       <c r="R322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -18782,7 +18782,7 @@
         <v>1</v>
       </c>
       <c r="R327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -19398,7 +19398,7 @@
         <v>2</v>
       </c>
       <c r="R338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -20014,7 +20014,7 @@
         <v>2</v>
       </c>
       <c r="R349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -20406,7 +20406,7 @@
         <v>2</v>
       </c>
       <c r="R356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -21078,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="R368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -21246,7 +21246,7 @@
         <v>2</v>
       </c>
       <c r="R371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -21638,7 +21638,7 @@
         <v>1</v>
       </c>
       <c r="R378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -21806,7 +21806,7 @@
         <v>2</v>
       </c>
       <c r="R381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -22310,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="R390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -22758,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="R398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="R400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -23262,7 +23262,7 @@
         <v>2</v>
       </c>
       <c r="R407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -23542,7 +23542,7 @@
         <v>1</v>
       </c>
       <c r="R412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -23934,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="R419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -24326,7 +24326,7 @@
         <v>2</v>
       </c>
       <c r="R426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -24774,7 +24774,7 @@
         <v>2</v>
       </c>
       <c r="R434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -24830,7 +24830,7 @@
         <v>1</v>
       </c>
       <c r="R435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -25390,7 +25390,7 @@
         <v>2</v>
       </c>
       <c r="R445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -26286,7 +26286,7 @@
         <v>2</v>
       </c>
       <c r="R461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -26510,7 +26510,7 @@
         <v>1</v>
       </c>
       <c r="R465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -30654,7 +30654,7 @@
         <v>2</v>
       </c>
       <c r="R539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -31158,7 +31158,7 @@
         <v>1</v>
       </c>
       <c r="R548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -32278,7 +32278,7 @@
         <v>2</v>
       </c>
       <c r="R568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -32670,7 +32670,7 @@
         <v>1</v>
       </c>
       <c r="R575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -32950,7 +32950,7 @@
         <v>2</v>
       </c>
       <c r="R580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -33902,7 +33902,7 @@
         <v>1</v>
       </c>
       <c r="R597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -34294,7 +34294,7 @@
         <v>1</v>
       </c>
       <c r="R604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -35246,7 +35246,7 @@
         <v>1</v>
       </c>
       <c r="R621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -36142,7 +36142,7 @@
         <v>2</v>
       </c>
       <c r="R637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -36366,7 +36366,7 @@
         <v>1</v>
       </c>
       <c r="R641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -37094,7 +37094,7 @@
         <v>2</v>
       </c>
       <c r="R654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -37262,7 +37262,7 @@
         <v>1</v>
       </c>
       <c r="R657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -37654,7 +37654,7 @@
         <v>1</v>
       </c>
       <c r="R664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -38606,7 +38606,7 @@
         <v>1</v>
       </c>
       <c r="R681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -39054,7 +39054,7 @@
         <v>2</v>
       </c>
       <c r="R689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39278,7 +39278,7 @@
         <v>1</v>
       </c>
       <c r="R693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -39838,7 +39838,7 @@
         <v>1</v>
       </c>
       <c r="R703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -40398,7 +40398,7 @@
         <v>1</v>
       </c>
       <c r="R713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -41406,7 +41406,7 @@
         <v>2</v>
       </c>
       <c r="R731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
@@ -42022,7 +42022,7 @@
         <v>1</v>
       </c>
       <c r="R742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -43086,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="R761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -43422,7 +43422,7 @@
         <v>2</v>
       </c>
       <c r="R767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -43702,7 +43702,7 @@
         <v>1</v>
       </c>
       <c r="R772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -43870,7 +43870,7 @@
         <v>2</v>
       </c>
       <c r="R775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -44094,7 +44094,7 @@
         <v>1</v>
       </c>
       <c r="R779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -44598,7 +44598,7 @@
         <v>2</v>
       </c>
       <c r="R788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -44878,7 +44878,7 @@
         <v>1</v>
       </c>
       <c r="R793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -44990,7 +44990,7 @@
         <v>2</v>
       </c>
       <c r="R795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -45214,7 +45214,7 @@
         <v>1</v>
       </c>
       <c r="R799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -45382,7 +45382,7 @@
         <v>2</v>
       </c>
       <c r="R802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -45718,7 +45718,7 @@
         <v>1</v>
       </c>
       <c r="R808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -46166,7 +46166,7 @@
         <v>2</v>
       </c>
       <c r="R816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -46894,7 +46894,7 @@
         <v>1</v>
       </c>
       <c r="R829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -47342,7 +47342,7 @@
         <v>2</v>
       </c>
       <c r="R837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -47566,7 +47566,7 @@
         <v>1</v>
       </c>
       <c r="R841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -49190,7 +49190,7 @@
         <v>2</v>
       </c>
       <c r="R870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -49246,7 +49246,7 @@
         <v>1</v>
       </c>
       <c r="R871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872">
@@ -49582,7 +49582,7 @@
         <v>1</v>
       </c>
       <c r="R877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -50030,7 +50030,7 @@
         <v>2</v>
       </c>
       <c r="R885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -50982,7 +50982,7 @@
         <v>2</v>
       </c>
       <c r="R902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -51430,7 +51430,7 @@
         <v>1</v>
       </c>
       <c r="R910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -51822,7 +51822,7 @@
         <v>1</v>
       </c>
       <c r="R917" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -52494,7 +52494,7 @@
         <v>1</v>
       </c>
       <c r="R929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930">
@@ -52662,7 +52662,7 @@
         <v>2</v>
       </c>
       <c r="R932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933">
@@ -53222,7 +53222,7 @@
         <v>1</v>
       </c>
       <c r="R942" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943">
@@ -53558,7 +53558,7 @@
         <v>2</v>
       </c>
       <c r="R948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -53726,7 +53726,7 @@
         <v>1</v>
       </c>
       <c r="R951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -54006,7 +54006,7 @@
         <v>2</v>
       </c>
       <c r="R956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -54174,7 +54174,7 @@
         <v>1</v>
       </c>
       <c r="R959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -54622,7 +54622,7 @@
         <v>2</v>
       </c>
       <c r="R967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -55630,7 +55630,7 @@
         <v>2</v>
       </c>
       <c r="R985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -55854,7 +55854,7 @@
         <v>1</v>
       </c>
       <c r="R989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990">
@@ -56246,7 +56246,7 @@
         <v>2</v>
       </c>
       <c r="R996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -57366,7 +57366,7 @@
         <v>1</v>
       </c>
       <c r="R1016" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
@@ -58038,7 +58038,7 @@
         <v>1</v>
       </c>
       <c r="R1028" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -58710,7 +58710,7 @@
         <v>2</v>
       </c>
       <c r="R1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -58990,7 +58990,7 @@
         <v>1</v>
       </c>
       <c r="R1045" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046">
@@ -59214,7 +59214,7 @@
         <v>2</v>
       </c>
       <c r="R1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -60166,7 +60166,7 @@
         <v>2</v>
       </c>
       <c r="R1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067">
@@ -60446,7 +60446,7 @@
         <v>1</v>
       </c>
       <c r="R1071" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072">
@@ -61454,7 +61454,7 @@
         <v>2</v>
       </c>
       <c r="R1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090">
@@ -61958,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="R1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -62406,7 +62406,7 @@
         <v>2</v>
       </c>
       <c r="R1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107">
@@ -63190,7 +63190,7 @@
         <v>1</v>
       </c>
       <c r="R1120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121">
@@ -63582,7 +63582,7 @@
         <v>2</v>
       </c>
       <c r="R1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -64310,7 +64310,7 @@
         <v>2</v>
       </c>
       <c r="R1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141">
@@ -64814,7 +64814,7 @@
         <v>1</v>
       </c>
       <c r="R1149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150">
@@ -65318,7 +65318,7 @@
         <v>1</v>
       </c>
       <c r="R1158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159">
@@ -65486,7 +65486,7 @@
         <v>2</v>
       </c>
       <c r="R1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162">
@@ -66102,7 +66102,7 @@
         <v>2</v>
       </c>
       <c r="R1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173">
@@ -66438,7 +66438,7 @@
         <v>1</v>
       </c>
       <c r="R1178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179">
@@ -66774,7 +66774,7 @@
         <v>2</v>
       </c>
       <c r="R1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185">
@@ -66886,7 +66886,7 @@
         <v>1</v>
       </c>
       <c r="R1186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187">
@@ -68342,7 +68342,7 @@
         <v>1</v>
       </c>
       <c r="R1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213">
@@ -68958,7 +68958,7 @@
         <v>2</v>
       </c>
       <c r="R1223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224">
@@ -69574,7 +69574,7 @@
         <v>1</v>
       </c>
       <c r="R1234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
@@ -70974,7 +70974,7 @@
         <v>1</v>
       </c>
       <c r="R1259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260">
@@ -71085,7 +71085,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
+++ b/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1261"/>
+  <dimension ref="A1:R1263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70909,7 +70909,7 @@
         <v>21</v>
       </c>
       <c r="O1258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1258" t="n">
         <v>0</v>
@@ -71088,6 +71088,114 @@
       <c r="R1261" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>1109.550048828125</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>1109.550048828125</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>1085.050048828125</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>1085.050048828125</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>4974064</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>1080.099975585938</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>1091.300048828125</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>1050.050048828125</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>1073.949951171875</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>1073.949951171875</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>7234278</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
+++ b/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
@@ -71141,7 +71141,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71195,7 +71197,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
+++ b/stock_historical_data/1wk/ZYDUSLIFE.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1263"/>
+  <dimension ref="A1:R1302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -71021,7 +71021,7 @@
         <v>23</v>
       </c>
       <c r="O1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1260" t="n">
         <v>0</v>
@@ -71200,6 +71200,2034 @@
       <c r="R1263" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>1090.629801391024</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>1163.946938805584</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>1056.365286013868</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>1159.557861328125</v>
+      </c>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="n">
+        <v>12118001</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>1162.001819773184</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>1200.007004798777</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>1131.178672852712</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>1172.226318359375</v>
+      </c>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="n">
+        <v>8917419</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>1171.079192058651</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>1195.967069963474</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>1134.320895945737</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>1141.602661132812</v>
+      </c>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="n">
+        <v>4990335</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>1132.176159685635</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>1211.97712248286</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>1120.405468966401</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>1203.049438476562</v>
+      </c>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="n">
+        <v>6136390</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>1210.5</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>1249.900024414062</v>
+      </c>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="n">
+        <v>7011485</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>1210.050048828125</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>1324.300048828125</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>1210.050048828125</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>1300.900024414062</v>
+      </c>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="n">
+        <v>11553906</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>1298</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>1157.199951171875</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>1187.550048828125</v>
+      </c>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="n">
+        <v>14331633</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>1197.949951171875</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>1171</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>1178.699951171875</v>
+      </c>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="n">
+        <v>9930232</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>1159.349975585938</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>1105.099975585938</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="n">
+        <v>51154139</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>1127</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>1139.949951171875</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>1097.199951171875</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="n">
+        <v>9452512</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>1135.099975585938</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>1088.949951171875</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="n">
+        <v>5866433</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>1133</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>1133</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>1042.099975585938</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="n">
+        <v>8316842</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>1062.800048828125</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>1078.5</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>1038.550048828125</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="n">
+        <v>8510736</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>1080.900024414062</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>1088.849975585938</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>1050.099975585938</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="n">
+        <v>6772434</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>1060.849975585938</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>1071.550048828125</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>1036.599975585938</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>1064.400024414062</v>
+      </c>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="n">
+        <v>5035815</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>1065.300048828125</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>1071.75</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>1022.450012207031</v>
+      </c>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="n">
+        <v>7556107</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>1022.450012207031</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>1029.25</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>983.9500122070312</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>990.5999755859375</v>
+      </c>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="n">
+        <v>4830995</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>990.5999755859375</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>1016.799987792969</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>977</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="n">
+        <v>3806170</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>1011.650024414062</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>965</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>970.3499755859375</v>
+      </c>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="n">
+        <v>6099730</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>970</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>990</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>933</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>957.4000244140625</v>
+      </c>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="n">
+        <v>6817457</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>964.0499877929688</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>966</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>933.5999755859375</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>949.0499877929688</v>
+      </c>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="n">
+        <v>2573974</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>955.1500244140625</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>972.75</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>945</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>965.9500122070312</v>
+      </c>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="n">
+        <v>5230231</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>965.9500122070312</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>996.6500244140625</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>961.5499877929688</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="n">
+        <v>5428381</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>955.0499877929688</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>978.5</v>
+      </c>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="n">
+        <v>3962966</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>981.5</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>991.0999755859375</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>965</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>973.5</v>
+      </c>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="n">
+        <v>4336133</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>978.75</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>985.5</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>953.0999755859375</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>972.4000244140625</v>
+      </c>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="n">
+        <v>4021833</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>973.2000122070312</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>997.4000244140625</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>952.5</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>975.7999877929688</v>
+      </c>
+      <c r="F1290" t="inlineStr"/>
+      <c r="G1290" t="n">
+        <v>7604785</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>974.75</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>1027.949951171875</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>954.9000244140625</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>1004.400024414062</v>
+      </c>
+      <c r="F1291" t="inlineStr"/>
+      <c r="G1291" t="n">
+        <v>12773625</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>990.0999755859375</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>1007.299987792969</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>966.25</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>994.6500244140625</v>
+      </c>
+      <c r="F1292" t="inlineStr"/>
+      <c r="G1292" t="n">
+        <v>4791224</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>1008.799987792969</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>955</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>957.5999755859375</v>
+      </c>
+      <c r="F1293" t="inlineStr"/>
+      <c r="G1293" t="n">
+        <v>2795002</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>950</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>980.6500244140625</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>891.1500244140625</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>975.7999877929688</v>
+      </c>
+      <c r="F1294" t="inlineStr"/>
+      <c r="G1294" t="n">
+        <v>4939042</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>972</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>945</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>994.1500244140625</v>
+      </c>
+      <c r="F1295" t="inlineStr"/>
+      <c r="G1295" t="n">
+        <v>11755390</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>996</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>998.4000244140625</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>897.0999755859375</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>901.8499755859375</v>
+      </c>
+      <c r="F1296" t="inlineStr"/>
+      <c r="G1296" t="n">
+        <v>3707081</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>904.2999877929688</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>928.9000244140625</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>855.0999755859375</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>885.3499755859375</v>
+      </c>
+      <c r="F1297" t="inlineStr"/>
+      <c r="G1297" t="n">
+        <v>7794401</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>885.3499755859375</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>905</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>867.0999755859375</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>876.5999755859375</v>
+      </c>
+      <c r="F1298" t="inlineStr"/>
+      <c r="G1298" t="n">
+        <v>4890802</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>879</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>925</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>859.5</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>900.7999877929688</v>
+      </c>
+      <c r="F1299" t="inlineStr"/>
+      <c r="G1299" t="n">
+        <v>6069385</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>900.7999877929688</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>911.1500244140625</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>872</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>883.0999755859375</v>
+      </c>
+      <c r="F1300" t="inlineStr"/>
+      <c r="G1300" t="n">
+        <v>3813641</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>888.3499755859375</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>930</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>887.1500244140625</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>918.5999755859375</v>
+      </c>
+      <c r="F1301" t="inlineStr"/>
+      <c r="G1301" t="n">
+        <v>5176476</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>918.5999755859375</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>880.5499877929688</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>886.4000244140625</v>
+      </c>
+      <c r="F1302" t="inlineStr"/>
+      <c r="G1302" t="n">
+        <v>7181076</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
